--- a/samples/configs/测试(test).xlsx
+++ b/samples/configs/测试(test).xlsx
@@ -9,16 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" tabRatio="573" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" tabRatio="573"/>
   </bookViews>
   <sheets>
-    <sheet name="1(test)" sheetId="1" r:id="rId1"/>
-    <sheet name="2(test)" sheetId="2" r:id="rId2"/>
+    <sheet name="(test)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="test" localSheetId="0">'1(test)'!$A$1:$E$9</definedName>
+    <definedName name="test" localSheetId="0">'(test)'!$A$1:$N$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>主键</t>
   </si>
@@ -59,16 +58,58 @@
     <t>字符串</t>
   </si>
   <si>
+    <t>整形</t>
+  </si>
+  <si>
+    <t>列表</t>
+  </si>
+  <si>
+    <t>元组</t>
+  </si>
+  <si>
+    <t>字典</t>
+  </si>
+  <si>
+    <t>数值引用</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>浮点型</t>
+  </si>
+  <si>
     <t>布尔型</t>
   </si>
   <si>
     <t>多语言</t>
   </si>
   <si>
+    <t>宏1</t>
+  </si>
+  <si>
+    <t>宏2</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>str</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>tuple(int(64))</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>int(64)</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>bool</t>
@@ -88,6 +129,27 @@
 u_key</t>
   </si>
   <si>
+    <t>default([])</t>
+  </si>
+  <si>
+    <t>default(())</t>
+  </si>
+  <si>
+    <t>default({})</t>
+  </si>
+  <si>
+    <t>f_key(item,id)</t>
+  </si>
+  <si>
+    <t>resource(samples/icon)</t>
+  </si>
+  <si>
+    <t>macro(m1,id,test_lang)</t>
+  </si>
+  <si>
+    <t>macro(m2,test_id,test_str)</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -97,6 +159,24 @@
     <t>test_id</t>
   </si>
   <si>
+    <t>test_list</t>
+  </si>
+  <si>
+    <t>test_tuple</t>
+  </si>
+  <si>
+    <t>test_dict</t>
+  </si>
+  <si>
+    <t>test_ref</t>
+  </si>
+  <si>
+    <t>test_icon</t>
+  </si>
+  <si>
+    <t>test_float</t>
+  </si>
+  <si>
     <t>test_bool</t>
   </si>
   <si>
@@ -106,28 +186,100 @@
     <t>中文</t>
   </si>
   <si>
+    <t>[1,2,3]</t>
+  </si>
+  <si>
+    <t>(1,2,3)</t>
+  </si>
+  <si>
+    <t>{1:10,2:20}</t>
+  </si>
+  <si>
+    <t>1.icon</t>
+  </si>
+  <si>
     <t>中文转英文</t>
   </si>
   <si>
+    <t>macro1_key</t>
+  </si>
+  <si>
+    <t>macro2_key</t>
+  </si>
+  <si>
     <t>english</t>
   </si>
   <si>
+    <t>[2,3,4,[1.123,true,"中文"]]</t>
+  </si>
+  <si>
+    <t>(2,3,4,5)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b,c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d}</t>
+    </r>
+  </si>
+  <si>
+    <t>2.icon</t>
+  </si>
+  <si>
     <t>英文转中文</t>
   </si>
   <si>
-    <t>主键2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>整形</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>macro1_value</t>
+  </si>
+  <si>
+    <t>macro2_value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +296,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -207,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,6 +380,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -288,7 +449,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,7 +484,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -543,103 +704,242 @@
     <col min="1" max="2" width="9.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="21.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
     <col min="12" max="12" width="11.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="15" max="16" width="21.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="11.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="1"/>
+    <col min="22" max="22" width="21.625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -647,16 +947,43 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -664,16 +991,43 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="1">
         <v>20</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3.9999899999999999</v>
+      </c>
+      <c r="M7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -685,171 +1039,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/samples/configs/测试(test).xlsx
+++ b/samples/configs/测试(test).xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="test" localSheetId="0">'(test)'!$A$1:$N$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>主键</t>
   </si>
@@ -83,12 +83,6 @@
   </si>
   <si>
     <t>多语言</t>
-  </si>
-  <si>
-    <t>宏1</t>
-  </si>
-  <si>
-    <t>宏2</t>
   </si>
   <si>
     <t>int</t>
@@ -144,12 +138,6 @@
     <t>resource(samples/icon)</t>
   </si>
   <si>
-    <t>macro(m1,id,test_lang)</t>
-  </si>
-  <si>
-    <t>macro(m2,test_id,test_str)</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -199,12 +187,6 @@
   </si>
   <si>
     <t>中文转英文</t>
-  </si>
-  <si>
-    <t>macro1_key</t>
-  </si>
-  <si>
-    <t>macro2_key</t>
   </si>
   <si>
     <t>english</t>
@@ -267,12 +249,6 @@
   </si>
   <si>
     <t>英文转中文</t>
-  </si>
-  <si>
-    <t>macro1_value</t>
-  </si>
-  <si>
-    <t>macro2_value</t>
   </si>
 </sst>
 </file>
@@ -449,7 +425,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,7 +460,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -693,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="A5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -714,20 +690,19 @@
     <col min="12" max="12" width="11.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="1" customWidth="1"/>
-    <col min="15" max="16" width="21.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1"/>
     <col min="18" max="18" width="11.625" style="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="11.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="21.625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="1"/>
+    <col min="20" max="20" width="21.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -766,180 +741,162 @@
       <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -947,25 +904,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H6" s="1">
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L6" s="1">
         <v>1.02</v>
@@ -974,16 +931,10 @@
         <v>1</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -991,25 +942,25 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1">
         <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L7" s="1">
         <v>3.9999899999999999</v>
@@ -1018,16 +969,10 @@
         <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>3</v>
       </c>

--- a/samples/configs/测试(test).xlsx
+++ b/samples/configs/测试(test).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\go_projects\cfg_exporter_go\samples\configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" tabRatio="573"/>
+    <workbookView windowWidth="23040" windowHeight="9060" tabRatio="573"/>
   </bookViews>
   <sheets>
     <sheet name="(test)" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="test" localSheetId="0">'(test)'!$A$1:$N$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +31,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="test" type="6" refreshedVersion="2" background="1" saveData="1">
+  <connection id="1" name="test" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="J:\projects\cfg_exporter\samples\test.csv" tab="0" comma="1">
       <textFields>
         <textField/>
@@ -47,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>主键</t>
   </si>
@@ -119,7 +114,7 @@
   </si>
   <si>
     <t>range(1,100)
-not_null_x000D_
+not_null
 u_key</t>
   </si>
   <si>
@@ -138,6 +133,12 @@
     <t>resource(samples/icon)</t>
   </si>
   <si>
+    <t>macro(test1,id,test_str)</t>
+  </si>
+  <si>
+    <t>macro(test2,str,test_lang)</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -187,6 +188,9 @@
   </si>
   <si>
     <t>中文转英文</t>
+  </si>
+  <si>
+    <t>test1_1</t>
   </si>
   <si>
     <t>english</t>
@@ -250,12 +254,21 @@
   <si>
     <t>英文转中文</t>
   </si>
+  <si>
+    <t>test1_2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,19 +289,151 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,24 +442,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39991454817346722"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39991454817346722"/>
+        <fgColor theme="1" tint="0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -337,11 +668,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,21 +931,62 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -425,7 +1039,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,7 +1074,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,46 +1277,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="A5:N5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="9.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1296296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.8796296296296" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6296296296296" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1296296296296" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6296296296296" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="11.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6296296296296" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6296296296296" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="11.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6296296296296" style="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="21.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="21.6296296296296" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6296296296296" style="1" customWidth="1"/>
     <col min="22" max="22" width="10.5" style="1" customWidth="1"/>
     <col min="23" max="23" width="11" style="1" customWidth="1"/>
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -741,8 +1355,10 @@
       <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -781,8 +1397,10 @@
       <c r="N2" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="60" customHeight="1" spans="1:16">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -815,88 +1433,98 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="A5" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -904,25 +1532,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1">
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L6" s="1">
         <v>1.02</v>
@@ -931,10 +1559,16 @@
         <v>1</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -942,37 +1576,43 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H7" s="1">
         <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L7" s="1">
-        <v>3.9999899999999999</v>
+        <v>3.99999</v>
       </c>
       <c r="M7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -984,8 +1624,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/samples/configs/测试(test).xlsx
+++ b/samples/configs/测试(test).xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>主键</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>test1_1</t>
+  </si>
+  <si>
+    <t>test2_1</t>
   </si>
   <si>
     <t>english</t>
@@ -256,6 +259,9 @@
   </si>
   <si>
     <t>test1_2</t>
+  </si>
+  <si>
+    <t>test2_2</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1292,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7"/>
@@ -1565,7 +1571,7 @@
         <v>48</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1576,25 +1582,25 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H7" s="1">
         <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L7" s="1">
         <v>3.99999</v>
@@ -1603,13 +1609,13 @@
         <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
